--- a/documentatie/vergadering/Agenda/agenda_12-09-2017.xlsx
+++ b/documentatie/vergadering/Agenda/agenda_12-09-2017.xlsx
@@ -181,9 +181,6 @@
     <t>Bijlagen:</t>
   </si>
   <si>
-    <t>Tijd: 09.00</t>
-  </si>
-  <si>
     <t>Locatie: Lokaal BN0330</t>
   </si>
   <si>
@@ -214,13 +211,16 @@
     <t>moodbord</t>
   </si>
   <si>
-    <t>oferte</t>
-  </si>
-  <si>
     <t>Datum:12 sep 2017</t>
   </si>
   <si>
     <t>Agenda aan : Jarno Touw, Santi Dudok, Ben Smits, Tim lutt</t>
+  </si>
+  <si>
+    <t>Tijd: 09.30</t>
+  </si>
+  <si>
+    <t>offerte</t>
   </si>
 </sst>
 </file>
@@ -976,7 +976,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,12 +1007,12 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="70"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="73"/>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
@@ -1155,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -1173,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="25"/>
@@ -1191,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
@@ -1209,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
@@ -1257,7 +1257,7 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,6 +1528,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1576,12 +1582,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1592,6 +1592,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1606,20 +1620,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
